--- a/Diagnostico_EB/Final/DiagnosticoEB_Promoción_Ingreso_060718.xlsx
+++ b/Diagnostico_EB/Final/DiagnosticoEB_Promoción_Ingreso_060718.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14040" windowHeight="9720"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14040" windowHeight="9720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Ingreso" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="108">
   <si>
     <t>Figura</t>
   </si>
@@ -341,9 +341,6 @@
   </si>
   <si>
     <t>Sí</t>
-  </si>
-  <si>
-    <t>[4]</t>
   </si>
   <si>
     <t xml:space="preserve">* </t>
@@ -755,7 +752,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -890,18 +887,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -917,6 +902,120 @@
     <xf numFmtId="0" fontId="7" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -926,140 +1025,32 @@
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1453,8 +1444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1463,7 +1454,7 @@
     <col min="2" max="2" width="67.7109375" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" customWidth="1"/>
     <col min="4" max="4" width="19.7109375" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
     <col min="6" max="6" width="17.7109375" customWidth="1"/>
     <col min="7" max="7" width="15.5703125" customWidth="1"/>
     <col min="8" max="9" width="13.42578125" customWidth="1"/>
@@ -1472,103 +1463,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="74" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="85"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="76"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="88"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="79"/>
     </row>
     <row r="3" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="90" t="s">
+      <c r="B3" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="90" t="s">
+      <c r="C3" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="82" t="s">
+      <c r="D3" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="82"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="82" t="s">
+      <c r="E3" s="80"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="89"/>
-      <c r="I3" s="80" t="s">
+      <c r="H3" s="81"/>
+      <c r="I3" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="98"/>
-      <c r="K3" s="76" t="s">
+      <c r="J3" s="73"/>
+      <c r="K3" s="62" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91"/>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="80" t="s">
+      <c r="A4" s="83"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="E4" s="96" t="s">
+      <c r="E4" s="70" t="s">
         <v>95</v>
       </c>
-      <c r="F4" s="96" t="s">
+      <c r="F4" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="96" t="s">
+      <c r="G4" s="70" t="s">
+        <v>105</v>
+      </c>
+      <c r="H4" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="H4" s="80" t="s">
+      <c r="I4" s="70" t="s">
         <v>107</v>
       </c>
-      <c r="I4" s="96" t="s">
-        <v>108</v>
-      </c>
-      <c r="J4" s="96" t="s">
+      <c r="J4" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="K4" s="96" t="s">
+      <c r="K4" s="70" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="92"/>
-      <c r="B5" s="92"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="97"/>
-      <c r="J5" s="97"/>
-      <c r="K5" s="97"/>
+      <c r="A5" s="84"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="26">
@@ -1583,13 +1574,13 @@
       <c r="D6" s="30">
         <v>44</v>
       </c>
-      <c r="E6" s="58">
+      <c r="E6" s="54">
         <v>5</v>
       </c>
       <c r="F6" s="14">
         <v>2</v>
       </c>
-      <c r="G6" s="74">
+      <c r="G6" s="60">
         <v>100</v>
       </c>
       <c r="H6" s="14">
@@ -1598,10 +1589,10 @@
       <c r="I6" s="35">
         <v>0.85</v>
       </c>
-      <c r="J6" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="K6" s="56" t="s">
+      <c r="J6" s="99" t="s">
+        <v>100</v>
+      </c>
+      <c r="K6" s="52" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1625,7 +1616,7 @@
       <c r="F7" s="16">
         <v>5</v>
       </c>
-      <c r="G7" s="75">
+      <c r="G7" s="61">
         <v>100</v>
       </c>
       <c r="H7" s="16">
@@ -1634,7 +1625,7 @@
       <c r="I7" s="20">
         <v>0.88</v>
       </c>
-      <c r="J7" s="51" t="s">
+      <c r="J7" s="99" t="s">
         <v>94</v>
       </c>
       <c r="K7" s="48"/>
@@ -1653,13 +1644,13 @@
       <c r="D8" s="31">
         <v>49</v>
       </c>
-      <c r="E8" s="55">
+      <c r="E8" s="51">
         <v>6</v>
       </c>
       <c r="F8" s="16">
         <v>0</v>
       </c>
-      <c r="G8" s="75">
+      <c r="G8" s="61">
         <v>100</v>
       </c>
       <c r="H8" s="16">
@@ -1668,10 +1659,10 @@
       <c r="I8" s="20">
         <v>0.85</v>
       </c>
-      <c r="J8" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="K8" s="56" t="s">
+      <c r="J8" s="99" t="s">
+        <v>100</v>
+      </c>
+      <c r="K8" s="52" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1695,7 +1686,7 @@
       <c r="F9" s="16">
         <v>5</v>
       </c>
-      <c r="G9" s="75">
+      <c r="G9" s="61">
         <v>119</v>
       </c>
       <c r="H9" s="16">
@@ -1704,7 +1695,7 @@
       <c r="I9" s="20">
         <v>0.87</v>
       </c>
-      <c r="J9" s="51" t="s">
+      <c r="J9" s="99" t="s">
         <v>94</v>
       </c>
       <c r="K9" s="48"/>
@@ -1723,13 +1714,13 @@
       <c r="D10" s="31">
         <v>49</v>
       </c>
-      <c r="E10" s="55">
+      <c r="E10" s="51">
         <v>2</v>
       </c>
       <c r="F10" s="16">
         <v>3</v>
       </c>
-      <c r="G10" s="75">
+      <c r="G10" s="61">
         <v>100</v>
       </c>
       <c r="H10" s="16">
@@ -1738,10 +1729,10 @@
       <c r="I10" s="20">
         <v>0.88</v>
       </c>
-      <c r="J10" s="52" t="s">
+      <c r="J10" s="99" t="s">
         <v>99</v>
       </c>
-      <c r="K10" s="56" t="s">
+      <c r="K10" s="52" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1765,7 +1756,7 @@
       <c r="F11" s="16">
         <v>3</v>
       </c>
-      <c r="G11" s="75">
+      <c r="G11" s="61">
         <v>100</v>
       </c>
       <c r="H11" s="16">
@@ -1774,7 +1765,7 @@
       <c r="I11" s="21">
         <v>0.84</v>
       </c>
-      <c r="J11" s="50" t="s">
+      <c r="J11" s="99" t="s">
         <v>100</v>
       </c>
       <c r="K11" s="48"/>
@@ -1799,7 +1790,7 @@
       <c r="F12" s="16">
         <v>4</v>
       </c>
-      <c r="G12" s="75">
+      <c r="G12" s="61">
         <v>100</v>
       </c>
       <c r="H12" s="16">
@@ -1808,7 +1799,7 @@
       <c r="I12" s="21">
         <v>0.86</v>
       </c>
-      <c r="J12" s="52" t="s">
+      <c r="J12" s="99" t="s">
         <v>99</v>
       </c>
       <c r="K12" s="48"/>
@@ -1833,7 +1824,7 @@
       <c r="F13" s="16">
         <v>3</v>
       </c>
-      <c r="G13" s="75">
+      <c r="G13" s="61">
         <v>100</v>
       </c>
       <c r="H13" s="16">
@@ -1842,7 +1833,7 @@
       <c r="I13" s="21">
         <v>0.91</v>
       </c>
-      <c r="J13" s="52" t="s">
+      <c r="J13" s="99" t="s">
         <v>99</v>
       </c>
       <c r="K13" s="48"/>
@@ -1867,7 +1858,7 @@
       <c r="F14" s="16">
         <v>3</v>
       </c>
-      <c r="G14" s="75">
+      <c r="G14" s="61">
         <v>100</v>
       </c>
       <c r="H14" s="16">
@@ -1876,7 +1867,7 @@
       <c r="I14" s="21">
         <v>0.89</v>
       </c>
-      <c r="J14" s="52" t="s">
+      <c r="J14" s="99" t="s">
         <v>99</v>
       </c>
       <c r="K14" s="48"/>
@@ -1895,13 +1886,13 @@
       <c r="D15" s="31">
         <v>50</v>
       </c>
-      <c r="E15" s="55">
+      <c r="E15" s="51">
         <v>2</v>
       </c>
       <c r="F15" s="16">
         <v>2</v>
       </c>
-      <c r="G15" s="75">
+      <c r="G15" s="61">
         <v>100</v>
       </c>
       <c r="H15" s="16">
@@ -1910,10 +1901,10 @@
       <c r="I15" s="21">
         <v>0.88</v>
       </c>
-      <c r="J15" s="52" t="s">
+      <c r="J15" s="99" t="s">
         <v>99</v>
       </c>
-      <c r="K15" s="56" t="s">
+      <c r="K15" s="52" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1937,7 +1928,7 @@
       <c r="F16" s="16">
         <v>4</v>
       </c>
-      <c r="G16" s="75">
+      <c r="G16" s="61">
         <v>100</v>
       </c>
       <c r="H16" s="16">
@@ -1946,7 +1937,7 @@
       <c r="I16" s="21">
         <v>0.87</v>
       </c>
-      <c r="J16" s="51" t="s">
+      <c r="J16" s="99" t="s">
         <v>94</v>
       </c>
       <c r="K16" s="48"/>
@@ -1971,7 +1962,7 @@
       <c r="F17" s="16">
         <v>5</v>
       </c>
-      <c r="G17" s="75">
+      <c r="G17" s="61">
         <v>100</v>
       </c>
       <c r="H17" s="16">
@@ -1980,7 +1971,7 @@
       <c r="I17" s="21">
         <v>0.86</v>
       </c>
-      <c r="J17" s="51" t="s">
+      <c r="J17" s="99" t="s">
         <v>94</v>
       </c>
       <c r="K17" s="48"/>
@@ -2005,7 +1996,7 @@
       <c r="F18" s="16">
         <v>3</v>
       </c>
-      <c r="G18" s="75">
+      <c r="G18" s="61">
         <v>100</v>
       </c>
       <c r="H18" s="16">
@@ -2014,7 +2005,7 @@
       <c r="I18" s="21">
         <v>0.88</v>
       </c>
-      <c r="J18" s="52" t="s">
+      <c r="J18" s="99" t="s">
         <v>99</v>
       </c>
       <c r="K18" s="48"/>
@@ -2039,7 +2030,7 @@
       <c r="F19" s="16">
         <v>5</v>
       </c>
-      <c r="G19" s="75">
+      <c r="G19" s="61">
         <v>100</v>
       </c>
       <c r="H19" s="16">
@@ -2048,7 +2039,7 @@
       <c r="I19" s="21">
         <v>0.87</v>
       </c>
-      <c r="J19" s="51" t="s">
+      <c r="J19" s="99" t="s">
         <v>94</v>
       </c>
       <c r="K19" s="48"/>
@@ -2067,13 +2058,13 @@
       <c r="D20" s="31">
         <v>49</v>
       </c>
-      <c r="E20" s="55">
+      <c r="E20" s="51">
         <v>3</v>
       </c>
       <c r="F20" s="16">
         <v>4</v>
       </c>
-      <c r="G20" s="75">
+      <c r="G20" s="61">
         <v>100</v>
       </c>
       <c r="H20" s="16">
@@ -2082,10 +2073,10 @@
       <c r="I20" s="21">
         <v>0.83</v>
       </c>
-      <c r="J20" s="51" t="s">
+      <c r="J20" s="99" t="s">
         <v>94</v>
       </c>
-      <c r="K20" s="56" t="s">
+      <c r="K20" s="52" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2103,13 +2094,13 @@
       <c r="D21" s="31">
         <v>50</v>
       </c>
-      <c r="E21" s="55">
+      <c r="E21" s="51">
         <v>4</v>
       </c>
       <c r="F21" s="16">
         <v>3</v>
       </c>
-      <c r="G21" s="75">
+      <c r="G21" s="61">
         <v>100</v>
       </c>
       <c r="H21" s="16">
@@ -2118,10 +2109,10 @@
       <c r="I21" s="21">
         <v>0.88</v>
       </c>
-      <c r="J21" s="52" t="s">
+      <c r="J21" s="99" t="s">
         <v>99</v>
       </c>
-      <c r="K21" s="56" t="s">
+      <c r="K21" s="52" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2139,13 +2130,13 @@
       <c r="D22" s="31">
         <v>50</v>
       </c>
-      <c r="E22" s="55">
+      <c r="E22" s="51">
         <v>1</v>
       </c>
       <c r="F22" s="16">
         <v>2</v>
       </c>
-      <c r="G22" s="75">
+      <c r="G22" s="61">
         <v>100</v>
       </c>
       <c r="H22" s="16">
@@ -2154,10 +2145,10 @@
       <c r="I22" s="21">
         <v>0.87</v>
       </c>
-      <c r="J22" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="K22" s="56" t="s">
+      <c r="J22" s="99" t="s">
+        <v>100</v>
+      </c>
+      <c r="K22" s="52" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2175,13 +2166,13 @@
       <c r="D23" s="31">
         <v>50</v>
       </c>
-      <c r="E23" s="55">
+      <c r="E23" s="51">
         <v>1</v>
       </c>
       <c r="F23" s="16">
         <v>4</v>
       </c>
-      <c r="G23" s="75">
+      <c r="G23" s="61">
         <v>100</v>
       </c>
       <c r="H23" s="16">
@@ -2190,10 +2181,10 @@
       <c r="I23" s="21">
         <v>0.86</v>
       </c>
-      <c r="J23" s="53" t="s">
+      <c r="J23" s="99" t="s">
         <v>101</v>
       </c>
-      <c r="K23" s="56" t="s">
+      <c r="K23" s="52" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2211,13 +2202,13 @@
       <c r="D24" s="39">
         <v>50</v>
       </c>
-      <c r="E24" s="55">
+      <c r="E24" s="51">
         <v>2</v>
       </c>
       <c r="F24" s="28">
         <v>5</v>
       </c>
-      <c r="G24" s="75">
+      <c r="G24" s="61">
         <v>100</v>
       </c>
       <c r="H24" s="28">
@@ -2226,10 +2217,10 @@
       <c r="I24" s="42">
         <v>0.86</v>
       </c>
-      <c r="J24" s="54" t="s">
+      <c r="J24" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="K24" s="56" t="s">
+      <c r="K24" s="52" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2247,13 +2238,13 @@
       <c r="D25" s="31">
         <v>50</v>
       </c>
-      <c r="E25" s="55">
+      <c r="E25" s="51">
         <v>4</v>
       </c>
       <c r="F25" s="16">
         <v>3</v>
       </c>
-      <c r="G25" s="75">
+      <c r="G25" s="61">
         <v>100</v>
       </c>
       <c r="H25" s="16">
@@ -2262,10 +2253,10 @@
       <c r="I25" s="21">
         <v>0.82</v>
       </c>
-      <c r="J25" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="K25" s="56" t="s">
+      <c r="J25" s="99" t="s">
+        <v>100</v>
+      </c>
+      <c r="K25" s="52" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2289,7 +2280,7 @@
       <c r="F26" s="16">
         <v>4</v>
       </c>
-      <c r="G26" s="75">
+      <c r="G26" s="61">
         <v>100</v>
       </c>
       <c r="H26" s="16">
@@ -2298,7 +2289,7 @@
       <c r="I26" s="21">
         <v>0.85</v>
       </c>
-      <c r="J26" s="52" t="s">
+      <c r="J26" s="99" t="s">
         <v>99</v>
       </c>
       <c r="K26" s="48"/>
@@ -2317,13 +2308,13 @@
       <c r="D27" s="31">
         <v>48</v>
       </c>
-      <c r="E27" s="55">
+      <c r="E27" s="51">
         <v>4</v>
       </c>
       <c r="F27" s="16">
         <v>1</v>
       </c>
-      <c r="G27" s="75">
+      <c r="G27" s="61">
         <v>100</v>
       </c>
       <c r="H27" s="16">
@@ -2332,10 +2323,10 @@
       <c r="I27" s="21">
         <v>0.82</v>
       </c>
-      <c r="J27" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="K27" s="56" t="s">
+      <c r="J27" s="99" t="s">
+        <v>100</v>
+      </c>
+      <c r="K27" s="52" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2353,13 +2344,13 @@
       <c r="D28" s="31">
         <v>50</v>
       </c>
-      <c r="E28" s="55">
+      <c r="E28" s="51">
         <v>2</v>
       </c>
       <c r="F28" s="16">
         <v>10</v>
       </c>
-      <c r="G28" s="75">
+      <c r="G28" s="61">
         <v>100</v>
       </c>
       <c r="H28" s="16">
@@ -2368,10 +2359,10 @@
       <c r="I28" s="21">
         <v>0.8</v>
       </c>
-      <c r="J28" s="53" t="s">
+      <c r="J28" s="99" t="s">
         <v>101</v>
       </c>
-      <c r="K28" s="56" t="s">
+      <c r="K28" s="52" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2389,13 +2380,13 @@
       <c r="D29" s="39">
         <v>50</v>
       </c>
-      <c r="E29" s="55">
+      <c r="E29" s="51">
         <v>1</v>
       </c>
       <c r="F29" s="28">
         <v>10</v>
       </c>
-      <c r="G29" s="75">
+      <c r="G29" s="61">
         <v>100</v>
       </c>
       <c r="H29" s="28">
@@ -2404,10 +2395,10 @@
       <c r="I29" s="42">
         <v>0.85</v>
       </c>
-      <c r="J29" s="54" t="s">
+      <c r="J29" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="K29" s="56" t="s">
+      <c r="K29" s="52" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2425,13 +2416,13 @@
       <c r="D30" s="31">
         <v>47</v>
       </c>
-      <c r="E30" s="55">
+      <c r="E30" s="51">
         <v>5</v>
       </c>
       <c r="F30" s="16">
         <v>7</v>
       </c>
-      <c r="G30" s="75">
+      <c r="G30" s="61">
         <v>100</v>
       </c>
       <c r="H30" s="16">
@@ -2440,10 +2431,10 @@
       <c r="I30" s="21">
         <v>0.8</v>
       </c>
-      <c r="J30" s="53" t="s">
+      <c r="J30" s="99" t="s">
         <v>101</v>
       </c>
-      <c r="K30" s="56" t="s">
+      <c r="K30" s="52" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2461,13 +2452,13 @@
       <c r="D31" s="31">
         <v>45</v>
       </c>
-      <c r="E31" s="55">
+      <c r="E31" s="51">
         <v>3</v>
       </c>
       <c r="F31" s="16">
         <v>4</v>
       </c>
-      <c r="G31" s="75">
+      <c r="G31" s="61">
         <v>100</v>
       </c>
       <c r="H31" s="16">
@@ -2476,10 +2467,10 @@
       <c r="I31" s="21">
         <v>0.9</v>
       </c>
-      <c r="J31" s="51" t="s">
+      <c r="J31" s="99" t="s">
         <v>94</v>
       </c>
-      <c r="K31" s="56" t="s">
+      <c r="K31" s="52" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2497,13 +2488,13 @@
       <c r="D32" s="32">
         <v>50</v>
       </c>
-      <c r="E32" s="57">
+      <c r="E32" s="53">
         <v>5</v>
       </c>
       <c r="F32" s="18">
         <v>2</v>
       </c>
-      <c r="G32" s="99">
+      <c r="G32" s="63">
         <v>100</v>
       </c>
       <c r="H32" s="18">
@@ -2512,10 +2503,10 @@
       <c r="I32" s="25">
         <v>0.81</v>
       </c>
-      <c r="J32" s="53" t="s">
+      <c r="J32" s="99" t="s">
         <v>101</v>
       </c>
-      <c r="K32" s="56" t="s">
+      <c r="K32" s="52" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2546,10 +2537,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="B3:F5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2557,115 +2548,122 @@
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="67.5703125" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="5" width="20.28515625" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" customWidth="1"/>
+    <col min="5" max="5" width="3.7109375" customWidth="1"/>
+    <col min="6" max="6" width="7" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="94" t="s">
+    <row r="1" spans="1:12" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="87" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="95" t="s">
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="88" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="90" t="s">
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="90" t="s">
+      <c r="B3" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="90" t="s">
+      <c r="C3" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="77" t="s">
+      <c r="D3" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="77"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="79" t="s">
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="78"/>
-      <c r="I3" s="80" t="s">
+      <c r="I3" s="90"/>
+      <c r="J3" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="98"/>
-      <c r="K3" s="76" t="s">
+      <c r="K3" s="73"/>
+      <c r="L3" s="62" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91"/>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="80" t="s">
+    <row r="4" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="83"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="E4" s="96" t="s">
+      <c r="E4" s="72" t="s">
         <v>95</v>
       </c>
-      <c r="F4" s="96" t="s">
+      <c r="F4" s="73"/>
+      <c r="G4" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="96" t="s">
+      <c r="H4" s="70" t="s">
+        <v>105</v>
+      </c>
+      <c r="I4" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="H4" s="80" t="s">
+      <c r="J4" s="70" t="s">
         <v>107</v>
       </c>
-      <c r="I4" s="96" t="s">
-        <v>108</v>
-      </c>
-      <c r="J4" s="96" t="s">
+      <c r="K4" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="K4" s="96" t="s">
+      <c r="L4" s="70" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="92"/>
-      <c r="B5" s="92"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="106"/>
-      <c r="H5" s="93"/>
-      <c r="I5" s="97"/>
-      <c r="J5" s="97"/>
-      <c r="K5" s="97"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="84"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="71"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="35">
         <v>1</v>
       </c>
@@ -2678,29 +2676,30 @@
       <c r="D6" s="30">
         <v>48</v>
       </c>
-      <c r="E6" s="59">
+      <c r="E6" s="93">
         <v>4</v>
       </c>
-      <c r="F6" s="33">
+      <c r="F6" s="93"/>
+      <c r="G6" s="33">
         <v>2</v>
       </c>
-      <c r="G6" s="13">
+      <c r="H6" s="13">
         <v>102</v>
       </c>
-      <c r="H6" s="14">
+      <c r="I6" s="14">
         <v>82</v>
       </c>
-      <c r="I6" s="100">
+      <c r="J6" s="64">
         <v>0.85899999999999999</v>
       </c>
-      <c r="J6" s="66" t="s">
+      <c r="K6" s="96" t="s">
         <v>99</v>
       </c>
-      <c r="K6" s="56" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L6" s="52" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="20">
         <f>A6+1</f>
         <v>2</v>
@@ -2714,29 +2713,30 @@
       <c r="D7" s="31">
         <v>48</v>
       </c>
-      <c r="E7" s="60">
+      <c r="E7" s="94">
         <v>2</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="94"/>
+      <c r="G7" s="22">
         <v>1</v>
       </c>
-      <c r="G7" s="15">
+      <c r="H7" s="15">
         <v>102</v>
       </c>
-      <c r="H7" s="16">
+      <c r="I7" s="16">
         <v>80</v>
       </c>
-      <c r="I7" s="73">
+      <c r="J7" s="59">
         <v>0.84399999999999997</v>
       </c>
-      <c r="J7" s="66" t="s">
+      <c r="K7" s="96" t="s">
         <v>99</v>
       </c>
-      <c r="K7" s="56" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L7" s="52" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="20">
         <f t="shared" ref="A8:A44" si="0">A7+1</f>
         <v>3</v>
@@ -2750,29 +2750,30 @@
       <c r="D8" s="31">
         <v>48</v>
       </c>
-      <c r="E8" s="60">
+      <c r="E8" s="94">
         <v>1</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="94"/>
+      <c r="G8" s="22">
         <v>1</v>
       </c>
-      <c r="G8" s="15">
+      <c r="H8" s="15">
         <v>102</v>
       </c>
-      <c r="H8" s="16">
+      <c r="I8" s="16">
         <v>92</v>
       </c>
-      <c r="I8" s="73">
+      <c r="J8" s="59">
         <v>0.87</v>
       </c>
-      <c r="J8" s="66" t="s">
+      <c r="K8" s="96" t="s">
         <v>99</v>
       </c>
-      <c r="K8" s="56" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L8" s="52" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="20">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2786,29 +2787,30 @@
       <c r="D9" s="31">
         <v>48</v>
       </c>
-      <c r="E9" s="60">
+      <c r="E9" s="94">
         <v>2</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="94"/>
+      <c r="G9" s="22">
         <v>2</v>
       </c>
-      <c r="G9" s="15">
+      <c r="H9" s="15">
         <v>102</v>
       </c>
-      <c r="H9" s="16">
+      <c r="I9" s="16">
         <v>79</v>
       </c>
-      <c r="I9" s="73">
+      <c r="J9" s="59">
         <v>0.80700000000000005</v>
       </c>
-      <c r="J9" s="67" t="s">
-        <v>100</v>
-      </c>
-      <c r="K9" s="56" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K9" s="97" t="s">
+        <v>100</v>
+      </c>
+      <c r="L9" s="52" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2822,23 +2824,24 @@
       <c r="D10" s="42">
         <v>37</v>
       </c>
-      <c r="E10" s="61">
+      <c r="E10" s="95">
         <v>2</v>
       </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="15">
-        <v>100</v>
-      </c>
-      <c r="H10" s="16">
+      <c r="F10" s="95"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="15">
+        <v>100</v>
+      </c>
+      <c r="I10" s="16">
         <v>120</v>
       </c>
-      <c r="I10" s="101"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="56" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J10" s="65"/>
+      <c r="K10" s="96"/>
+      <c r="L10" s="52" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="20">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2852,29 +2855,30 @@
       <c r="D11" s="21">
         <v>39</v>
       </c>
-      <c r="E11" s="61">
+      <c r="E11" s="95">
         <v>2</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="95"/>
+      <c r="G11" s="19">
         <v>1</v>
       </c>
-      <c r="G11" s="15">
-        <v>100</v>
-      </c>
-      <c r="H11" s="16">
+      <c r="H11" s="15">
+        <v>100</v>
+      </c>
+      <c r="I11" s="16">
         <v>75</v>
       </c>
-      <c r="I11" s="73">
+      <c r="J11" s="59">
         <v>0.78600000000000003</v>
       </c>
-      <c r="J11" s="69" t="s">
-        <v>100</v>
-      </c>
-      <c r="K11" s="56" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K11" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="L11" s="52" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="20">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2888,27 +2892,28 @@
       <c r="D12" s="21">
         <v>39</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="100">
         <v>0</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="100"/>
+      <c r="G12" s="19">
         <v>2</v>
       </c>
-      <c r="G12" s="15">
-        <v>100</v>
-      </c>
-      <c r="H12" s="16">
+      <c r="H12" s="15">
+        <v>100</v>
+      </c>
+      <c r="I12" s="16">
         <v>84</v>
       </c>
-      <c r="I12" s="73">
+      <c r="J12" s="59">
         <v>0.83299999999999996</v>
       </c>
-      <c r="J12" s="69" t="s">
-        <v>100</v>
-      </c>
-      <c r="K12" s="49"/>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K12" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="L12" s="49"/>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="20">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2922,29 +2927,30 @@
       <c r="D13" s="31">
         <v>41</v>
       </c>
-      <c r="E13" s="55">
+      <c r="E13" s="101">
         <v>6</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F13" s="101"/>
+      <c r="G13" s="22">
         <v>3</v>
       </c>
-      <c r="G13" s="15">
-        <v>100</v>
-      </c>
-      <c r="H13" s="16">
+      <c r="H13" s="15">
+        <v>100</v>
+      </c>
+      <c r="I13" s="16">
         <v>65</v>
       </c>
-      <c r="I13" s="73">
+      <c r="J13" s="59">
         <v>0.84399999999999997</v>
       </c>
-      <c r="J13" s="70" t="s">
+      <c r="K13" s="96" t="s">
         <v>101</v>
       </c>
-      <c r="K13" s="56" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L13" s="52" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="20">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2958,27 +2964,28 @@
       <c r="D14" s="21">
         <v>46</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="100">
         <v>0</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="100"/>
+      <c r="G14" s="19">
         <v>3</v>
       </c>
-      <c r="G14" s="15">
-        <v>100</v>
-      </c>
-      <c r="H14" s="16">
+      <c r="H14" s="15">
+        <v>100</v>
+      </c>
+      <c r="I14" s="16">
         <v>79</v>
       </c>
-      <c r="I14" s="73">
+      <c r="J14" s="59">
         <v>0.82799999999999996</v>
       </c>
-      <c r="J14" s="69" t="s">
-        <v>100</v>
-      </c>
-      <c r="K14" s="49"/>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K14" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="L14" s="49"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="20">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2992,29 +2999,30 @@
       <c r="D15" s="21">
         <v>49</v>
       </c>
-      <c r="E15" s="61">
+      <c r="E15" s="95">
         <v>1</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="95"/>
+      <c r="G15" s="19">
         <v>3</v>
       </c>
-      <c r="G15" s="15">
-        <v>100</v>
-      </c>
-      <c r="H15" s="16">
+      <c r="H15" s="15">
+        <v>100</v>
+      </c>
+      <c r="I15" s="16">
         <v>82</v>
       </c>
-      <c r="I15" s="73">
+      <c r="J15" s="59">
         <v>0.83499999999999996</v>
       </c>
-      <c r="J15" s="69" t="s">
-        <v>100</v>
-      </c>
-      <c r="K15" s="56" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K15" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="L15" s="52" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="20">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3028,29 +3036,30 @@
       <c r="D16" s="21">
         <v>49</v>
       </c>
-      <c r="E16" s="61">
+      <c r="E16" s="95">
         <v>2</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="95"/>
+      <c r="G16" s="19">
         <v>1</v>
       </c>
-      <c r="G16" s="15">
-        <v>100</v>
-      </c>
-      <c r="H16" s="16">
+      <c r="H16" s="15">
+        <v>100</v>
+      </c>
+      <c r="I16" s="16">
         <v>79</v>
       </c>
-      <c r="I16" s="73">
+      <c r="J16" s="59">
         <v>0.85499999999999998</v>
       </c>
-      <c r="J16" s="71" t="s">
+      <c r="K16" s="96" t="s">
         <v>94</v>
       </c>
-      <c r="K16" s="56" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L16" s="52" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="20">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3064,29 +3073,30 @@
       <c r="D17" s="21">
         <v>49</v>
       </c>
-      <c r="E17" s="61">
+      <c r="E17" s="95">
         <v>2</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17" s="95"/>
+      <c r="G17" s="19">
         <v>5</v>
       </c>
-      <c r="G17" s="15">
-        <v>100</v>
-      </c>
-      <c r="H17" s="16">
+      <c r="H17" s="15">
+        <v>100</v>
+      </c>
+      <c r="I17" s="16">
         <v>78</v>
       </c>
-      <c r="I17" s="73">
+      <c r="J17" s="59">
         <v>0.84099999999999997</v>
       </c>
-      <c r="J17" s="67" t="s">
-        <v>100</v>
-      </c>
-      <c r="K17" s="56" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K17" s="97" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="52" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="20">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3100,29 +3110,30 @@
       <c r="D18" s="21">
         <v>57</v>
       </c>
-      <c r="E18" s="61">
+      <c r="E18" s="95">
         <v>1</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="95"/>
+      <c r="G18" s="9">
         <v>7</v>
       </c>
-      <c r="G18" s="15">
+      <c r="H18" s="15">
         <v>114</v>
       </c>
-      <c r="H18" s="16">
+      <c r="I18" s="16">
         <v>90</v>
       </c>
-      <c r="I18" s="73">
+      <c r="J18" s="59">
         <v>0.83599999999999997</v>
       </c>
-      <c r="J18" s="69" t="s">
-        <v>100</v>
-      </c>
-      <c r="K18" s="56" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K18" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="L18" s="52" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="20">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3134,23 +3145,24 @@
       <c r="D19" s="20">
         <v>40</v>
       </c>
-      <c r="E19" s="61">
+      <c r="E19" s="95">
         <v>3</v>
       </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="15">
-        <v>100</v>
-      </c>
-      <c r="H19" s="16">
+      <c r="F19" s="95"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="15">
+        <v>100</v>
+      </c>
+      <c r="I19" s="16">
         <v>120</v>
       </c>
-      <c r="I19" s="101"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="56" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J19" s="65"/>
+      <c r="K19" s="96"/>
+      <c r="L19" s="52" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="20">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3164,29 +3176,30 @@
       <c r="D20" s="20">
         <v>46</v>
       </c>
-      <c r="E20" s="61">
+      <c r="E20" s="95">
         <v>2</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="95"/>
+      <c r="G20" s="9">
         <v>5</v>
       </c>
-      <c r="G20" s="15">
-        <v>100</v>
-      </c>
-      <c r="H20" s="16">
+      <c r="H20" s="15">
+        <v>100</v>
+      </c>
+      <c r="I20" s="16">
         <v>76</v>
       </c>
-      <c r="I20" s="102">
+      <c r="J20" s="66">
         <v>0.83299999999999996</v>
       </c>
-      <c r="J20" s="70" t="s">
+      <c r="K20" s="96" t="s">
         <v>101</v>
       </c>
-      <c r="K20" s="56" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L20" s="52" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="20">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3200,27 +3213,28 @@
       <c r="D21" s="21">
         <v>46</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E21" s="100">
         <v>0</v>
       </c>
-      <c r="F21" s="19">
+      <c r="F21" s="100"/>
+      <c r="G21" s="19">
         <v>1</v>
       </c>
-      <c r="G21" s="15">
-        <v>100</v>
-      </c>
-      <c r="H21" s="16">
+      <c r="H21" s="15">
+        <v>100</v>
+      </c>
+      <c r="I21" s="16">
         <v>82</v>
       </c>
-      <c r="I21" s="73">
+      <c r="J21" s="59">
         <v>0.84699999999999998</v>
       </c>
-      <c r="J21" s="69" t="s">
-        <v>100</v>
-      </c>
-      <c r="K21" s="49"/>
-    </row>
-    <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K21" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="L21" s="49"/>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="20">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3234,29 +3248,30 @@
       <c r="D22" s="21">
         <v>46</v>
       </c>
-      <c r="E22" s="61">
+      <c r="E22" s="95">
         <v>2</v>
       </c>
-      <c r="F22" s="19">
+      <c r="F22" s="95"/>
+      <c r="G22" s="19">
         <v>5</v>
       </c>
-      <c r="G22" s="15">
-        <v>100</v>
-      </c>
-      <c r="H22" s="16">
+      <c r="H22" s="15">
+        <v>100</v>
+      </c>
+      <c r="I22" s="16">
         <v>69</v>
       </c>
-      <c r="I22" s="73">
+      <c r="J22" s="59">
         <v>0.81799999999999995</v>
       </c>
-      <c r="J22" s="72" t="s">
+      <c r="K22" s="98" t="s">
         <v>101</v>
       </c>
-      <c r="K22" s="56" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L22" s="52" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="20">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3270,19 +3285,22 @@
       <c r="D23" s="39">
         <v>50</v>
       </c>
-      <c r="E23" s="60"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="41">
-        <v>100</v>
-      </c>
-      <c r="H23" s="28"/>
-      <c r="I23" s="103"/>
-      <c r="J23" s="63"/>
-      <c r="K23" s="62" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E23" s="103">
+        <v>4</v>
+      </c>
+      <c r="F23" s="104"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="41">
+        <v>100</v>
+      </c>
+      <c r="I23" s="28"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="55" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="20">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3296,21 +3314,20 @@
       <c r="D24" s="39">
         <v>50</v>
       </c>
-      <c r="E24" s="60" t="s">
-        <v>104</v>
-      </c>
-      <c r="F24" s="40"/>
-      <c r="G24" s="41">
-        <v>100</v>
-      </c>
-      <c r="H24" s="28"/>
-      <c r="I24" s="101"/>
-      <c r="J24" s="64"/>
-      <c r="K24" s="62" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E24" s="103"/>
+      <c r="F24" s="104"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="41">
+        <v>100</v>
+      </c>
+      <c r="I24" s="28"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="55" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="20">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -3324,21 +3341,20 @@
       <c r="D25" s="39">
         <v>50</v>
       </c>
-      <c r="E25" s="60" t="s">
-        <v>104</v>
-      </c>
-      <c r="F25" s="40"/>
-      <c r="G25" s="41">
-        <v>100</v>
-      </c>
-      <c r="H25" s="28"/>
-      <c r="I25" s="101"/>
-      <c r="J25" s="64"/>
-      <c r="K25" s="62" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E25" s="103"/>
+      <c r="F25" s="104"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="41">
+        <v>100</v>
+      </c>
+      <c r="I25" s="28"/>
+      <c r="J25" s="65"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="55" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="20">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3352,21 +3368,20 @@
       <c r="D26" s="39">
         <v>50</v>
       </c>
-      <c r="E26" s="60" t="s">
-        <v>104</v>
-      </c>
-      <c r="F26" s="40"/>
-      <c r="G26" s="41">
-        <v>100</v>
-      </c>
-      <c r="H26" s="28"/>
-      <c r="I26" s="101"/>
-      <c r="J26" s="64"/>
-      <c r="K26" s="62" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E26" s="103"/>
+      <c r="F26" s="104"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="41">
+        <v>100</v>
+      </c>
+      <c r="I26" s="28"/>
+      <c r="J26" s="65"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="55" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="20">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3380,21 +3395,20 @@
       <c r="D27" s="39">
         <v>50</v>
       </c>
-      <c r="E27" s="60" t="s">
-        <v>104</v>
-      </c>
-      <c r="F27" s="40"/>
-      <c r="G27" s="41">
-        <v>100</v>
-      </c>
-      <c r="H27" s="28"/>
-      <c r="I27" s="101"/>
-      <c r="J27" s="64"/>
-      <c r="K27" s="62" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E27" s="103"/>
+      <c r="F27" s="104"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="41">
+        <v>100</v>
+      </c>
+      <c r="I27" s="28"/>
+      <c r="J27" s="65"/>
+      <c r="K27" s="57"/>
+      <c r="L27" s="55" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="20">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3408,21 +3422,20 @@
       <c r="D28" s="39">
         <v>50</v>
       </c>
-      <c r="E28" s="60" t="s">
-        <v>104</v>
-      </c>
-      <c r="F28" s="40"/>
-      <c r="G28" s="41">
-        <v>100</v>
-      </c>
-      <c r="H28" s="28"/>
-      <c r="I28" s="101"/>
-      <c r="J28" s="64"/>
-      <c r="K28" s="62" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E28" s="103"/>
+      <c r="F28" s="104"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="41">
+        <v>100</v>
+      </c>
+      <c r="I28" s="28"/>
+      <c r="J28" s="65"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="55" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="20">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -3436,21 +3449,22 @@
       <c r="D29" s="39">
         <v>50</v>
       </c>
-      <c r="E29" s="60">
+      <c r="E29" s="103"/>
+      <c r="F29" s="104">
         <v>2</v>
       </c>
-      <c r="F29" s="40"/>
-      <c r="G29" s="41">
-        <v>100</v>
-      </c>
-      <c r="H29" s="28"/>
-      <c r="I29" s="101"/>
-      <c r="J29" s="64"/>
-      <c r="K29" s="62" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G29" s="40"/>
+      <c r="H29" s="41">
+        <v>100</v>
+      </c>
+      <c r="I29" s="28"/>
+      <c r="J29" s="65"/>
+      <c r="K29" s="57"/>
+      <c r="L29" s="55" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="20">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3464,21 +3478,20 @@
       <c r="D30" s="39">
         <v>50</v>
       </c>
-      <c r="E30" s="60" t="s">
-        <v>104</v>
-      </c>
-      <c r="F30" s="40"/>
-      <c r="G30" s="41">
-        <v>100</v>
-      </c>
-      <c r="H30" s="28"/>
-      <c r="I30" s="101"/>
-      <c r="J30" s="64"/>
-      <c r="K30" s="62" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E30" s="103"/>
+      <c r="F30" s="104"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="41">
+        <v>100</v>
+      </c>
+      <c r="I30" s="28"/>
+      <c r="J30" s="65"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="55" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="20">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -3492,21 +3505,20 @@
       <c r="D31" s="39">
         <v>50</v>
       </c>
-      <c r="E31" s="60" t="s">
-        <v>104</v>
-      </c>
-      <c r="F31" s="40"/>
-      <c r="G31" s="41">
-        <v>100</v>
-      </c>
-      <c r="H31" s="28"/>
-      <c r="I31" s="101"/>
-      <c r="J31" s="64"/>
-      <c r="K31" s="62" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E31" s="103"/>
+      <c r="F31" s="104"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="41">
+        <v>100</v>
+      </c>
+      <c r="I31" s="28"/>
+      <c r="J31" s="65"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="55" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="20">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -3520,21 +3532,22 @@
       <c r="D32" s="39">
         <v>50</v>
       </c>
-      <c r="E32" s="60">
+      <c r="E32" s="103"/>
+      <c r="F32" s="104">
         <v>1</v>
       </c>
-      <c r="F32" s="40"/>
-      <c r="G32" s="41">
-        <v>100</v>
-      </c>
-      <c r="H32" s="28"/>
-      <c r="I32" s="101"/>
-      <c r="J32" s="64"/>
-      <c r="K32" s="62" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G32" s="40"/>
+      <c r="H32" s="41">
+        <v>100</v>
+      </c>
+      <c r="I32" s="28"/>
+      <c r="J32" s="65"/>
+      <c r="K32" s="57"/>
+      <c r="L32" s="55" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="20">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -3548,21 +3561,22 @@
       <c r="D33" s="39">
         <v>50</v>
       </c>
-      <c r="E33" s="60">
+      <c r="E33" s="103"/>
+      <c r="F33" s="104">
         <v>1</v>
       </c>
-      <c r="F33" s="40"/>
-      <c r="G33" s="41">
-        <v>100</v>
-      </c>
-      <c r="H33" s="28"/>
-      <c r="I33" s="104"/>
-      <c r="J33" s="65"/>
-      <c r="K33" s="62" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G33" s="40"/>
+      <c r="H33" s="41">
+        <v>100</v>
+      </c>
+      <c r="I33" s="28"/>
+      <c r="J33" s="68"/>
+      <c r="K33" s="58"/>
+      <c r="L33" s="55" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="20">
         <f>A40+1</f>
         <v>32</v>
@@ -3576,29 +3590,30 @@
       <c r="D34" s="31">
         <v>50</v>
       </c>
-      <c r="E34" s="60">
+      <c r="E34" s="94">
         <v>1</v>
       </c>
-      <c r="F34" s="22">
+      <c r="F34" s="94"/>
+      <c r="G34" s="22">
         <v>2</v>
       </c>
-      <c r="G34" s="15">
-        <v>100</v>
-      </c>
-      <c r="H34" s="16">
+      <c r="H34" s="15">
+        <v>100</v>
+      </c>
+      <c r="I34" s="16">
         <v>80</v>
       </c>
-      <c r="I34" s="73">
+      <c r="J34" s="59">
         <v>0.84699999999999998</v>
       </c>
-      <c r="J34" s="67" t="s">
-        <v>100</v>
-      </c>
-      <c r="K34" s="56" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K34" s="97" t="s">
+        <v>100</v>
+      </c>
+      <c r="L34" s="52" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="20">
         <f>A34+1</f>
         <v>33</v>
@@ -3612,29 +3627,30 @@
       <c r="D35" s="31">
         <v>50</v>
       </c>
-      <c r="E35" s="55">
+      <c r="E35" s="101">
         <v>2</v>
       </c>
-      <c r="F35" s="22">
+      <c r="F35" s="101"/>
+      <c r="G35" s="22">
         <v>1</v>
       </c>
-      <c r="G35" s="15">
-        <v>100</v>
-      </c>
-      <c r="H35" s="16">
+      <c r="H35" s="15">
+        <v>100</v>
+      </c>
+      <c r="I35" s="16">
         <v>83</v>
       </c>
-      <c r="I35" s="73">
+      <c r="J35" s="59">
         <v>0.81100000000000005</v>
       </c>
-      <c r="J35" s="69" t="s">
-        <v>100</v>
-      </c>
-      <c r="K35" s="56" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K35" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="L35" s="52" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="20">
         <f>A33+1</f>
         <v>29</v>
@@ -3648,29 +3664,30 @@
       <c r="D36" s="31">
         <v>52</v>
       </c>
-      <c r="E36" s="55">
+      <c r="E36" s="101">
         <v>2</v>
       </c>
-      <c r="F36" s="22">
+      <c r="F36" s="101"/>
+      <c r="G36" s="22">
         <v>4</v>
       </c>
-      <c r="G36" s="15">
+      <c r="H36" s="15">
         <v>104</v>
       </c>
-      <c r="H36" s="16">
+      <c r="I36" s="16">
         <v>79</v>
       </c>
-      <c r="I36" s="102">
+      <c r="J36" s="66">
         <v>0.87</v>
       </c>
-      <c r="J36" s="71" t="s">
+      <c r="K36" s="96" t="s">
         <v>94</v>
       </c>
-      <c r="K36" s="56" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L36" s="52" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="20">
         <f>A35+1</f>
         <v>34</v>
@@ -3684,29 +3701,30 @@
       <c r="D37" s="31">
         <v>53</v>
       </c>
-      <c r="E37" s="55">
+      <c r="E37" s="101">
         <v>13</v>
       </c>
-      <c r="F37" s="22">
+      <c r="F37" s="101"/>
+      <c r="G37" s="22">
         <v>3</v>
       </c>
-      <c r="G37" s="15">
+      <c r="H37" s="15">
         <v>106</v>
       </c>
-      <c r="H37" s="16">
+      <c r="I37" s="16">
         <v>83</v>
       </c>
-      <c r="I37" s="73">
+      <c r="J37" s="59">
         <v>0.83</v>
       </c>
-      <c r="J37" s="69" t="s">
-        <v>100</v>
-      </c>
-      <c r="K37" s="56" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K37" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="L37" s="52" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="20">
         <f>A37+1</f>
         <v>35</v>
@@ -3720,29 +3738,30 @@
       <c r="D38" s="31">
         <v>51</v>
       </c>
-      <c r="E38" s="55">
+      <c r="E38" s="101">
         <v>1</v>
       </c>
-      <c r="F38" s="22">
+      <c r="F38" s="101"/>
+      <c r="G38" s="22">
         <v>2</v>
       </c>
-      <c r="G38" s="15">
+      <c r="H38" s="15">
         <v>102</v>
       </c>
-      <c r="H38" s="16">
+      <c r="I38" s="16">
         <v>82</v>
       </c>
-      <c r="I38" s="73">
+      <c r="J38" s="59">
         <v>0.84799999999999998</v>
       </c>
-      <c r="J38" s="71" t="s">
+      <c r="K38" s="96" t="s">
         <v>94</v>
       </c>
-      <c r="K38" s="56" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L38" s="52" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="20">
         <f>A38+1</f>
         <v>36</v>
@@ -3756,29 +3775,30 @@
       <c r="D39" s="31">
         <v>55</v>
       </c>
-      <c r="E39" s="55">
+      <c r="E39" s="101">
         <v>1</v>
       </c>
-      <c r="F39" s="22">
+      <c r="F39" s="101"/>
+      <c r="G39" s="22">
         <v>5</v>
       </c>
-      <c r="G39" s="15">
+      <c r="H39" s="15">
         <v>110</v>
       </c>
-      <c r="H39" s="16">
+      <c r="I39" s="16">
         <v>83</v>
       </c>
-      <c r="I39" s="73">
+      <c r="J39" s="59">
         <v>0.84299999999999997</v>
       </c>
-      <c r="J39" s="69" t="s">
-        <v>100</v>
-      </c>
-      <c r="K39" s="56" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K39" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="L39" s="52" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="20">
         <f>A41+1</f>
         <v>31</v>
@@ -3792,29 +3812,30 @@
       <c r="D40" s="31">
         <v>49</v>
       </c>
-      <c r="E40" s="55">
+      <c r="E40" s="101">
         <v>8</v>
       </c>
-      <c r="F40" s="22">
+      <c r="F40" s="101"/>
+      <c r="G40" s="22">
         <v>5</v>
       </c>
-      <c r="G40" s="15">
+      <c r="H40" s="15">
         <v>105</v>
       </c>
-      <c r="H40" s="16">
+      <c r="I40" s="16">
         <v>77</v>
       </c>
-      <c r="I40" s="73">
+      <c r="J40" s="59">
         <v>0.80700000000000005</v>
       </c>
-      <c r="J40" s="69" t="s">
-        <v>100</v>
-      </c>
-      <c r="K40" s="56" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K40" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="L40" s="52" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="20">
         <f>A36+1</f>
         <v>30</v>
@@ -3828,29 +3849,30 @@
       <c r="D41" s="31">
         <v>48</v>
       </c>
-      <c r="E41" s="55">
+      <c r="E41" s="101">
         <v>1</v>
       </c>
-      <c r="F41" s="22">
+      <c r="F41" s="101"/>
+      <c r="G41" s="22">
         <v>2</v>
       </c>
-      <c r="G41" s="15">
-        <v>100</v>
-      </c>
-      <c r="H41" s="16">
+      <c r="H41" s="15">
+        <v>100</v>
+      </c>
+      <c r="I41" s="16">
         <v>77</v>
       </c>
-      <c r="I41" s="102">
+      <c r="J41" s="66">
         <v>0.84199999999999997</v>
       </c>
-      <c r="J41" s="69" t="s">
-        <v>100</v>
-      </c>
-      <c r="K41" s="56" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K41" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="L41" s="52" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="20">
         <f>A39+1</f>
         <v>37</v>
@@ -3864,29 +3886,30 @@
       <c r="D42" s="31">
         <v>51</v>
       </c>
-      <c r="E42" s="55">
+      <c r="E42" s="101">
         <v>7</v>
       </c>
-      <c r="F42" s="22">
+      <c r="F42" s="101"/>
+      <c r="G42" s="22">
         <v>3</v>
       </c>
-      <c r="G42" s="15">
+      <c r="H42" s="15">
         <v>102</v>
       </c>
-      <c r="H42" s="16">
-        <v>103</v>
-      </c>
-      <c r="I42" s="102">
+      <c r="I42" s="16">
+        <v>103</v>
+      </c>
+      <c r="J42" s="66">
         <v>0.82899999999999996</v>
       </c>
-      <c r="J42" s="67" t="s">
-        <v>100</v>
-      </c>
-      <c r="K42" s="56" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K42" s="97" t="s">
+        <v>100</v>
+      </c>
+      <c r="L42" s="52" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="20">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -3900,29 +3923,30 @@
       <c r="D43" s="31">
         <v>45</v>
       </c>
-      <c r="E43" s="55">
+      <c r="E43" s="101">
         <v>1</v>
       </c>
-      <c r="F43" s="22">
+      <c r="F43" s="101"/>
+      <c r="G43" s="22">
         <v>5</v>
       </c>
-      <c r="G43" s="15">
+      <c r="H43" s="15">
         <v>102</v>
       </c>
-      <c r="H43" s="16">
+      <c r="I43" s="16">
         <v>75</v>
       </c>
-      <c r="I43" s="102">
+      <c r="J43" s="66">
         <v>0.84</v>
       </c>
-      <c r="J43" s="71" t="s">
+      <c r="K43" s="96" t="s">
         <v>94</v>
       </c>
-      <c r="K43" s="56" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L43" s="52" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="36">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -3936,51 +3960,81 @@
       <c r="D44" s="32">
         <v>52</v>
       </c>
-      <c r="E44" s="57">
+      <c r="E44" s="102">
         <v>2</v>
       </c>
-      <c r="F44" s="34">
+      <c r="F44" s="102"/>
+      <c r="G44" s="34">
         <v>5</v>
       </c>
-      <c r="G44" s="17">
+      <c r="H44" s="17">
         <v>104</v>
       </c>
-      <c r="H44" s="18">
+      <c r="I44" s="18">
         <v>79</v>
       </c>
-      <c r="I44" s="105">
+      <c r="J44" s="69">
         <v>0.84199999999999997</v>
       </c>
-      <c r="J44" s="71" t="s">
+      <c r="K44" s="96" t="s">
         <v>94</v>
       </c>
-      <c r="K44" s="56" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L44" s="52" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="H4:H5"/>
+  <mergeCells count="45">
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E23:E33"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E4:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
     <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
